--- a/INRC2/doc/InstanceAnalysis.xlsx
+++ b/INRC2/doc/InstanceAnalysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="697">
   <si>
     <t>Scenario</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Min|Opt</t>
   </si>
   <si>
-    <t>Min|Max</t>
-  </si>
-  <si>
     <t>Min|Opt RequirePerSkill</t>
   </si>
   <si>
@@ -75,511 +72,1387 @@
     <t>WeekendRequire</t>
   </si>
   <si>
-    <t>22|22</t>
+    <t>22|30</t>
+  </si>
+  <si>
+    <t>6|8</t>
+  </si>
+  <si>
+    <t>7|8</t>
+  </si>
+  <si>
+    <t>15|22</t>
+  </si>
+  <si>
+    <t>24|29</t>
+  </si>
+  <si>
+    <t>8|8</t>
+  </si>
+  <si>
+    <t>16|21</t>
+  </si>
+  <si>
+    <t>24|28</t>
+  </si>
+  <si>
+    <t>7|7</t>
+  </si>
+  <si>
+    <t>17|21</t>
+  </si>
+  <si>
+    <t>23|27</t>
   </si>
   <si>
     <t>6|6</t>
   </si>
   <si>
-    <t>7|7</t>
+    <t>26|29</t>
+  </si>
+  <si>
+    <t>9|9</t>
+  </si>
+  <si>
+    <t>18|21</t>
+  </si>
+  <si>
+    <t>23|28</t>
+  </si>
+  <si>
+    <t>23|31</t>
+  </si>
+  <si>
+    <t>8|10</t>
+  </si>
+  <si>
+    <t>15|23</t>
+  </si>
+  <si>
+    <t>21|31</t>
+  </si>
+  <si>
+    <t>4|7</t>
+  </si>
+  <si>
+    <t>14|23</t>
+  </si>
+  <si>
+    <t>21|29</t>
+  </si>
+  <si>
+    <t>6|7</t>
+  </si>
+  <si>
+    <t>5|8</t>
+  </si>
+  <si>
+    <t>19|26</t>
+  </si>
+  <si>
+    <t>6|9</t>
+  </si>
+  <si>
+    <t>3|5</t>
+  </si>
+  <si>
+    <t>n012w8</t>
+  </si>
+  <si>
+    <t>33|49.5|84</t>
+  </si>
+  <si>
+    <t>24.5|49</t>
+  </si>
+  <si>
+    <t>59.5|84</t>
+  </si>
+  <si>
+    <t>46|55</t>
+  </si>
+  <si>
+    <t>12|13</t>
+  </si>
+  <si>
+    <t>12|15</t>
+  </si>
+  <si>
+    <t>34|40</t>
+  </si>
+  <si>
+    <t>48|55</t>
+  </si>
+  <si>
+    <t>14|16</t>
+  </si>
+  <si>
+    <t>34|39</t>
+  </si>
+  <si>
+    <t>44|56</t>
+  </si>
+  <si>
+    <t>12|12</t>
+  </si>
+  <si>
+    <t>12|16</t>
+  </si>
+  <si>
+    <t>32|40</t>
+  </si>
+  <si>
+    <t>48|50</t>
+  </si>
+  <si>
+    <t>10|10</t>
+  </si>
+  <si>
+    <t>36|38</t>
+  </si>
+  <si>
+    <t>43|50</t>
+  </si>
+  <si>
+    <t>12|14</t>
   </si>
   <si>
     <t>15|15</t>
   </si>
   <si>
-    <t>24|24</t>
-  </si>
-  <si>
-    <t>8|8</t>
+    <t>28|35</t>
+  </si>
+  <si>
+    <t>46|51</t>
+  </si>
+  <si>
+    <t>13|13</t>
+  </si>
+  <si>
+    <t>33|38</t>
+  </si>
+  <si>
+    <t>51|51</t>
+  </si>
+  <si>
+    <t>38|38</t>
+  </si>
+  <si>
+    <t>51|57</t>
   </si>
   <si>
     <t>16|16</t>
   </si>
   <si>
-    <t>17|17</t>
-  </si>
-  <si>
-    <t>23|23</t>
-  </si>
-  <si>
-    <t>26|26</t>
-  </si>
-  <si>
-    <t>9|9</t>
-  </si>
-  <si>
-    <t>18|18</t>
-  </si>
-  <si>
-    <t>21|21</t>
+    <t>35|41</t>
+  </si>
+  <si>
+    <t>52|57</t>
+  </si>
+  <si>
+    <t>36|41</t>
+  </si>
+  <si>
+    <t>50|53</t>
+  </si>
+  <si>
+    <t>13|16</t>
+  </si>
+  <si>
+    <t>37|37</t>
+  </si>
+  <si>
+    <t>Caretaker</t>
+  </si>
+  <si>
+    <t>Trainee</t>
+  </si>
+  <si>
+    <t>n021w4</t>
+  </si>
+  <si>
+    <t>42.75|77|147</t>
+  </si>
+  <si>
+    <t>7|21</t>
+  </si>
+  <si>
+    <t>35|77</t>
+  </si>
+  <si>
+    <t>70|112</t>
+  </si>
+  <si>
+    <t>35|35</t>
+  </si>
+  <si>
+    <t>64|85</t>
+  </si>
+  <si>
+    <t>15|20</t>
+  </si>
+  <si>
+    <t>3|3</t>
+  </si>
+  <si>
+    <t>28|28</t>
+  </si>
+  <si>
+    <t>21|35</t>
+  </si>
+  <si>
+    <t>12|19</t>
+  </si>
+  <si>
+    <t>65|84</t>
+  </si>
+  <si>
+    <t>19|24</t>
+  </si>
+  <si>
+    <t>19|34</t>
+  </si>
+  <si>
+    <t>15|19</t>
+  </si>
+  <si>
+    <t>67|85</t>
+  </si>
+  <si>
+    <t>20|35</t>
+  </si>
+  <si>
+    <t>16|19</t>
+  </si>
+  <si>
+    <t>62|85</t>
+  </si>
+  <si>
+    <t>19|35</t>
+  </si>
+  <si>
+    <t>64|84</t>
+  </si>
+  <si>
+    <t>18|24</t>
+  </si>
+  <si>
+    <t>28|30</t>
+  </si>
+  <si>
+    <t>19|33</t>
+  </si>
+  <si>
+    <t>14|18</t>
+  </si>
+  <si>
+    <t>62|84</t>
+  </si>
+  <si>
+    <t>2|2</t>
+  </si>
+  <si>
+    <t>13|19</t>
+  </si>
+  <si>
+    <t>14|19</t>
+  </si>
+  <si>
+    <t>63|83</t>
+  </si>
+  <si>
+    <t>63|85</t>
+  </si>
+  <si>
+    <t>18|23</t>
+  </si>
+  <si>
+    <t>62|83</t>
+  </si>
+  <si>
+    <t>19|22</t>
+  </si>
+  <si>
+    <t>n030w4</t>
+  </si>
+  <si>
+    <t>71.5|123.5|210</t>
+  </si>
+  <si>
+    <t>11.6667|28</t>
+  </si>
+  <si>
+    <t>57.1667|119</t>
+  </si>
+  <si>
+    <t>106.167|161</t>
+  </si>
+  <si>
+    <t>91|127</t>
+  </si>
+  <si>
+    <t>20|29</t>
+  </si>
+  <si>
+    <t>43|69</t>
+  </si>
+  <si>
+    <t>14|17</t>
+  </si>
+  <si>
+    <t>89|127</t>
+  </si>
+  <si>
+    <t>17|26</t>
+  </si>
+  <si>
+    <t>44|69</t>
+  </si>
+  <si>
+    <t>11|17</t>
+  </si>
+  <si>
+    <t>90|124</t>
+  </si>
+  <si>
+    <t>19|28</t>
+  </si>
+  <si>
+    <t>42|65</t>
+  </si>
+  <si>
+    <t>101|129</t>
+  </si>
+  <si>
+    <t>22|28</t>
+  </si>
+  <si>
+    <t>52|70</t>
+  </si>
+  <si>
+    <t>15|18</t>
+  </si>
+  <si>
+    <t>90|126</t>
+  </si>
+  <si>
+    <t>17|27</t>
+  </si>
+  <si>
+    <t>43|68</t>
+  </si>
+  <si>
+    <t>13|17</t>
+  </si>
+  <si>
+    <t>90|127</t>
+  </si>
+  <si>
+    <t>5|5</t>
+  </si>
+  <si>
+    <t>28|34</t>
+  </si>
+  <si>
+    <t>42|70</t>
+  </si>
+  <si>
+    <t>98|130</t>
+  </si>
+  <si>
+    <t>20|25</t>
+  </si>
+  <si>
+    <t>28|36</t>
+  </si>
+  <si>
+    <t>51|70</t>
+  </si>
+  <si>
+    <t>13|18</t>
+  </si>
+  <si>
+    <t>103|121</t>
+  </si>
+  <si>
+    <t>54|63</t>
+  </si>
+  <si>
+    <t>15|17</t>
+  </si>
+  <si>
+    <t>18|26</t>
+  </si>
+  <si>
+    <t>92|126</t>
+  </si>
+  <si>
+    <t>44|67</t>
+  </si>
+  <si>
+    <t>n030w8</t>
+  </si>
+  <si>
+    <t>65|110|210</t>
+  </si>
+  <si>
+    <t>85|117</t>
+  </si>
+  <si>
+    <t>20|22</t>
+  </si>
+  <si>
+    <t>39|62</t>
+  </si>
+  <si>
+    <t>81|114</t>
+  </si>
+  <si>
+    <t>28|33</t>
+  </si>
+  <si>
+    <t>37|60</t>
+  </si>
+  <si>
+    <t>11|16</t>
+  </si>
+  <si>
+    <t>83|112</t>
+  </si>
+  <si>
+    <t>17|20</t>
+  </si>
+  <si>
+    <t>28|31</t>
+  </si>
+  <si>
+    <t>80|113</t>
+  </si>
+  <si>
+    <t>17|23</t>
+  </si>
+  <si>
+    <t>38|61</t>
+  </si>
+  <si>
+    <t>83|115</t>
+  </si>
+  <si>
+    <t>19|25</t>
+  </si>
+  <si>
+    <t>87|116</t>
   </si>
   <si>
     <t>4|4</t>
   </si>
   <si>
-    <t>14|14</t>
-  </si>
-  <si>
-    <t>5|5</t>
-  </si>
-  <si>
-    <t>19|19</t>
-  </si>
-  <si>
-    <t>3|3</t>
-  </si>
-  <si>
-    <t>n012w8</t>
-  </si>
-  <si>
-    <t>33|49.5|84</t>
-  </si>
-  <si>
-    <t>24.5|49</t>
-  </si>
-  <si>
-    <t>59.5|84</t>
-  </si>
-  <si>
-    <t>46|46</t>
-  </si>
-  <si>
-    <t>12|12</t>
-  </si>
-  <si>
-    <t>34|34</t>
-  </si>
-  <si>
-    <t>48|48</t>
-  </si>
-  <si>
-    <t>44|44</t>
-  </si>
-  <si>
-    <t>32|32</t>
-  </si>
-  <si>
-    <t>10|10</t>
+    <t>89|112</t>
+  </si>
+  <si>
+    <t>28|32</t>
+  </si>
+  <si>
+    <t>40|59</t>
+  </si>
+  <si>
+    <t>88|115</t>
+  </si>
+  <si>
+    <t>40|60</t>
+  </si>
+  <si>
+    <t>87|114</t>
+  </si>
+  <si>
+    <t>21|25</t>
+  </si>
+  <si>
+    <t>40|62</t>
+  </si>
+  <si>
+    <t>82|112</t>
+  </si>
+  <si>
+    <t>37|62</t>
+  </si>
+  <si>
+    <t>n040w4</t>
+  </si>
+  <si>
+    <t>100|160.5|280</t>
+  </si>
+  <si>
+    <t>14|42</t>
+  </si>
+  <si>
+    <t>56|126</t>
+  </si>
+  <si>
+    <t>154|224</t>
+  </si>
+  <si>
+    <t>56|56</t>
+  </si>
+  <si>
+    <t>115|158</t>
+  </si>
+  <si>
+    <t>22|27</t>
+  </si>
+  <si>
+    <t>32|36</t>
+  </si>
+  <si>
+    <t>59|87</t>
+  </si>
+  <si>
+    <t>16|27</t>
+  </si>
+  <si>
+    <t>119|156</t>
+  </si>
+  <si>
+    <t>29|34</t>
+  </si>
+  <si>
+    <t>60|89</t>
+  </si>
+  <si>
+    <t>16|24</t>
+  </si>
+  <si>
+    <t>119|157</t>
+  </si>
+  <si>
+    <t>26|33</t>
+  </si>
+  <si>
+    <t>30|35</t>
+  </si>
+  <si>
+    <t>64|89</t>
+  </si>
+  <si>
+    <t>17|25</t>
+  </si>
+  <si>
+    <t>124|162</t>
+  </si>
+  <si>
+    <t>25|29</t>
   </si>
   <si>
     <t>36|36</t>
   </si>
   <si>
-    <t>43|43</t>
-  </si>
-  <si>
-    <t>28|28</t>
-  </si>
-  <si>
-    <t>13|13</t>
-  </si>
-  <si>
-    <t>33|33</t>
-  </si>
-  <si>
-    <t>51|51</t>
-  </si>
-  <si>
-    <t>38|38</t>
-  </si>
-  <si>
-    <t>35|35</t>
-  </si>
-  <si>
-    <t>52|52</t>
-  </si>
-  <si>
-    <t>50|50</t>
-  </si>
-  <si>
-    <t>37|37</t>
-  </si>
-  <si>
-    <t>Caretaker</t>
-  </si>
-  <si>
-    <t>Trainee</t>
-  </si>
-  <si>
-    <t>n021w4</t>
-  </si>
-  <si>
-    <t>42.75|77|147</t>
-  </si>
-  <si>
-    <t>7|21</t>
-  </si>
-  <si>
-    <t>35|77</t>
-  </si>
-  <si>
-    <t>70|112</t>
-  </si>
-  <si>
-    <t>64|64</t>
-  </si>
-  <si>
-    <t>65|65</t>
-  </si>
-  <si>
-    <t>67|67</t>
-  </si>
-  <si>
-    <t>20|20</t>
-  </si>
-  <si>
-    <t>62|62</t>
-  </si>
-  <si>
-    <t>2|2</t>
-  </si>
-  <si>
-    <t>63|63</t>
-  </si>
-  <si>
-    <t>n030w4</t>
-  </si>
-  <si>
-    <t>71.5|123.5|210</t>
-  </si>
-  <si>
-    <t>11.6667|28</t>
-  </si>
-  <si>
-    <t>57.1667|119</t>
-  </si>
-  <si>
-    <t>106.167|161</t>
-  </si>
-  <si>
-    <t>91|91</t>
-  </si>
-  <si>
-    <t>89|89</t>
+    <t>16|29</t>
+  </si>
+  <si>
+    <t>118|167</t>
+  </si>
+  <si>
+    <t>27|36</t>
+  </si>
+  <si>
+    <t>62|90</t>
+  </si>
+  <si>
+    <t>111|155</t>
+  </si>
+  <si>
+    <t>27|35</t>
+  </si>
+  <si>
+    <t>62|89</t>
+  </si>
+  <si>
+    <t>16|26</t>
+  </si>
+  <si>
+    <t>118|164</t>
+  </si>
+  <si>
+    <t>27|32</t>
+  </si>
+  <si>
+    <t>34|38</t>
+  </si>
+  <si>
+    <t>124|164</t>
+  </si>
+  <si>
+    <t>61|90</t>
+  </si>
+  <si>
+    <t>17|28</t>
+  </si>
+  <si>
+    <t>116|162</t>
+  </si>
+  <si>
+    <t>24|30</t>
+  </si>
+  <si>
+    <t>32|39</t>
+  </si>
+  <si>
+    <t>59|89</t>
+  </si>
+  <si>
+    <t>18|27</t>
+  </si>
+  <si>
+    <t>119|158</t>
+  </si>
+  <si>
+    <t>30|37</t>
+  </si>
+  <si>
+    <t>59|85</t>
+  </si>
+  <si>
+    <t>n040w8</t>
+  </si>
+  <si>
+    <t>90|147.5|280</t>
+  </si>
+  <si>
+    <t>108|146</t>
+  </si>
+  <si>
+    <t>27|29</t>
+  </si>
+  <si>
+    <t>53|80</t>
+  </si>
+  <si>
+    <t>20|26</t>
+  </si>
+  <si>
+    <t>105|147</t>
+  </si>
+  <si>
+    <t>24|33</t>
+  </si>
+  <si>
+    <t>55|81</t>
+  </si>
+  <si>
+    <t>15|26</t>
+  </si>
+  <si>
+    <t>104|148</t>
+  </si>
+  <si>
+    <t>54|82</t>
+  </si>
+  <si>
+    <t>15|25</t>
+  </si>
+  <si>
+    <t>110|151</t>
+  </si>
+  <si>
+    <t>27|31</t>
+  </si>
+  <si>
+    <t>57|84</t>
+  </si>
+  <si>
+    <t>104|150</t>
+  </si>
+  <si>
+    <t>21|27</t>
+  </si>
+  <si>
+    <t>52|84</t>
+  </si>
+  <si>
+    <t>106|145</t>
+  </si>
+  <si>
+    <t>25|33</t>
+  </si>
+  <si>
+    <t>53|84</t>
+  </si>
+  <si>
+    <t>101|149</t>
+  </si>
+  <si>
+    <t>23|35</t>
+  </si>
+  <si>
+    <t>51|82</t>
+  </si>
+  <si>
+    <t>102|150</t>
+  </si>
+  <si>
+    <t>29|36</t>
+  </si>
+  <si>
+    <t>107|147</t>
+  </si>
+  <si>
+    <t>23|30</t>
+  </si>
+  <si>
+    <t>29|32</t>
+  </si>
+  <si>
+    <t>54|83</t>
+  </si>
+  <si>
+    <t>107|149</t>
+  </si>
+  <si>
+    <t>23|26</t>
+  </si>
+  <si>
+    <t>56|84</t>
+  </si>
+  <si>
+    <t>16|23</t>
+  </si>
+  <si>
+    <t>n050w4</t>
+  </si>
+  <si>
+    <t>124.5|200.5|350</t>
+  </si>
+  <si>
+    <t>21|42</t>
+  </si>
+  <si>
+    <t>98|196</t>
+  </si>
+  <si>
+    <t>161|238</t>
+  </si>
+  <si>
+    <t>70|70</t>
+  </si>
+  <si>
+    <t>140|199</t>
+  </si>
+  <si>
+    <t>29|40</t>
+  </si>
+  <si>
+    <t>43|60</t>
+  </si>
+  <si>
+    <t>69|95</t>
+  </si>
+  <si>
+    <t>20|36</t>
+  </si>
+  <si>
+    <t>138|198</t>
+  </si>
+  <si>
+    <t>31|41</t>
+  </si>
+  <si>
+    <t>44|59</t>
+  </si>
+  <si>
+    <t>64|94</t>
+  </si>
+  <si>
+    <t>137|200</t>
+  </si>
+  <si>
+    <t>26|42</t>
+  </si>
+  <si>
+    <t>41|57</t>
+  </si>
+  <si>
+    <t>67|98</t>
+  </si>
+  <si>
+    <t>23|32</t>
+  </si>
+  <si>
+    <t>43|63</t>
+  </si>
+  <si>
+    <t>66|93</t>
+  </si>
+  <si>
+    <t>20|33</t>
+  </si>
+  <si>
+    <t>141|203</t>
   </si>
   <si>
     <t>11|11</t>
   </si>
   <si>
-    <t>90|90</t>
-  </si>
-  <si>
-    <t>42|42</t>
-  </si>
-  <si>
-    <t>101|101</t>
-  </si>
-  <si>
-    <t>98|98</t>
-  </si>
-  <si>
-    <t>103|103</t>
-  </si>
-  <si>
-    <t>54|54</t>
-  </si>
-  <si>
-    <t>92|92</t>
-  </si>
-  <si>
-    <t>n030w8</t>
-  </si>
-  <si>
-    <t>65|110|210</t>
-  </si>
-  <si>
-    <t>85|85</t>
-  </si>
-  <si>
-    <t>39|39</t>
-  </si>
-  <si>
-    <t>81|81</t>
-  </si>
-  <si>
-    <t>83|83</t>
-  </si>
-  <si>
-    <t>80|80</t>
-  </si>
-  <si>
-    <t>87|87</t>
-  </si>
-  <si>
-    <t>40|40</t>
-  </si>
-  <si>
-    <t>88|88</t>
-  </si>
-  <si>
-    <t>82|82</t>
-  </si>
-  <si>
-    <t>n040w4</t>
-  </si>
-  <si>
-    <t>100|160.5|280</t>
-  </si>
-  <si>
-    <t>14|42</t>
-  </si>
-  <si>
-    <t>56|126</t>
-  </si>
-  <si>
-    <t>154|224</t>
-  </si>
-  <si>
-    <t>56|56</t>
-  </si>
-  <si>
-    <t>115|115</t>
-  </si>
-  <si>
-    <t>59|59</t>
-  </si>
-  <si>
-    <t>119|119</t>
-  </si>
-  <si>
-    <t>29|29</t>
-  </si>
-  <si>
-    <t>60|60</t>
-  </si>
-  <si>
-    <t>30|30</t>
-  </si>
-  <si>
-    <t>124|124</t>
-  </si>
-  <si>
-    <t>25|25</t>
-  </si>
-  <si>
-    <t>118|118</t>
-  </si>
-  <si>
-    <t>27|27</t>
-  </si>
-  <si>
-    <t>111|111</t>
-  </si>
-  <si>
-    <t>61|61</t>
-  </si>
-  <si>
-    <t>116|116</t>
-  </si>
-  <si>
-    <t>n040w8</t>
-  </si>
-  <si>
-    <t>90|147.5|280</t>
-  </si>
-  <si>
-    <t>108|108</t>
-  </si>
-  <si>
-    <t>53|53</t>
-  </si>
-  <si>
-    <t>105|105</t>
-  </si>
-  <si>
-    <t>55|55</t>
-  </si>
-  <si>
-    <t>104|104</t>
-  </si>
-  <si>
-    <t>110|110</t>
-  </si>
-  <si>
-    <t>57|57</t>
-  </si>
-  <si>
-    <t>106|106</t>
-  </si>
-  <si>
-    <t>102|102</t>
-  </si>
-  <si>
-    <t>107|107</t>
-  </si>
-  <si>
-    <t>n050w4</t>
-  </si>
-  <si>
-    <t>124.5|200.5|350</t>
-  </si>
-  <si>
-    <t>21|42</t>
-  </si>
-  <si>
-    <t>98|196</t>
-  </si>
-  <si>
-    <t>161|238</t>
-  </si>
-  <si>
-    <t>70|70</t>
+    <t>44|62</t>
+  </si>
+  <si>
+    <t>65|96</t>
+  </si>
+  <si>
+    <t>21|34</t>
+  </si>
+  <si>
+    <t>149|209</t>
+  </si>
+  <si>
+    <t>26|34</t>
+  </si>
+  <si>
+    <t>45|65</t>
+  </si>
+  <si>
+    <t>65|98</t>
+  </si>
+  <si>
+    <t>139|199</t>
+  </si>
+  <si>
+    <t>23|33</t>
+  </si>
+  <si>
+    <t>45|54</t>
+  </si>
+  <si>
+    <t>63|98</t>
+  </si>
+  <si>
+    <t>21|37</t>
+  </si>
+  <si>
+    <t>147|204</t>
+  </si>
+  <si>
+    <t>28|39</t>
+  </si>
+  <si>
+    <t>45|61</t>
+  </si>
+  <si>
+    <t>67|97</t>
+  </si>
+  <si>
+    <t>26|37</t>
+  </si>
+  <si>
+    <t>137|206</t>
+  </si>
+  <si>
+    <t>28|38</t>
+  </si>
+  <si>
+    <t>44|64</t>
+  </si>
+  <si>
+    <t>63|97</t>
+  </si>
+  <si>
+    <t>139|209</t>
+  </si>
+  <si>
+    <t>25|35</t>
+  </si>
+  <si>
+    <t>41|63</t>
+  </si>
+  <si>
+    <t>24|37</t>
+  </si>
+  <si>
+    <t>n050w8</t>
+  </si>
+  <si>
+    <t>123.75|210|350</t>
+  </si>
+  <si>
+    <t>135|216</t>
+  </si>
+  <si>
+    <t>26|41</t>
+  </si>
+  <si>
+    <t>43|66</t>
+  </si>
+  <si>
+    <t>62|104</t>
+  </si>
+  <si>
+    <t>138|210</t>
+  </si>
+  <si>
+    <t>27|38</t>
+  </si>
+  <si>
+    <t>63|100</t>
+  </si>
+  <si>
+    <t>20|32</t>
+  </si>
+  <si>
+    <t>150|214</t>
+  </si>
+  <si>
+    <t>66|103</t>
+  </si>
+  <si>
+    <t>134|213</t>
+  </si>
+  <si>
+    <t>42|66</t>
+  </si>
+  <si>
+    <t>64|103</t>
+  </si>
+  <si>
+    <t>139|211</t>
+  </si>
+  <si>
+    <t>25|40</t>
+  </si>
+  <si>
+    <t>45|64</t>
+  </si>
+  <si>
+    <t>64|102</t>
+  </si>
+  <si>
+    <t>143|211</t>
+  </si>
+  <si>
+    <t>142|215</t>
+  </si>
+  <si>
+    <t>24|40</t>
+  </si>
+  <si>
+    <t>65|102</t>
+  </si>
+  <si>
+    <t>23|36</t>
+  </si>
+  <si>
+    <t>139|214</t>
+  </si>
+  <si>
+    <t>24|34</t>
+  </si>
+  <si>
+    <t>63|104</t>
+  </si>
+  <si>
+    <t>137|216</t>
+  </si>
+  <si>
+    <t>27|43</t>
+  </si>
+  <si>
+    <t>137|214</t>
+  </si>
+  <si>
+    <t>29|42</t>
+  </si>
+  <si>
+    <t>42|64</t>
+  </si>
+  <si>
+    <t>n060w4</t>
+  </si>
+  <si>
+    <t>123|209.75|420</t>
+  </si>
+  <si>
+    <t>129.5|259</t>
+  </si>
+  <si>
+    <t>210|315</t>
+  </si>
+  <si>
+    <t>147|218</t>
+  </si>
+  <si>
+    <t>34|41</t>
+  </si>
+  <si>
+    <t>77|114</t>
+  </si>
+  <si>
+    <t>139|220</t>
+  </si>
+  <si>
+    <t>30|40</t>
+  </si>
+  <si>
+    <t>67|113</t>
+  </si>
+  <si>
+    <t>142|219</t>
+  </si>
+  <si>
+    <t>31|40</t>
+  </si>
+  <si>
+    <t>41|66</t>
+  </si>
+  <si>
+    <t>69|113</t>
+  </si>
+  <si>
+    <t>139|219</t>
+  </si>
+  <si>
+    <t>30|39</t>
+  </si>
+  <si>
+    <t>14|15</t>
+  </si>
+  <si>
+    <t>43|67</t>
+  </si>
+  <si>
+    <t>67|114</t>
+  </si>
+  <si>
+    <t>138|218</t>
+  </si>
+  <si>
+    <t>24|35</t>
+  </si>
+  <si>
+    <t>149|224</t>
+  </si>
+  <si>
+    <t>29|37</t>
+  </si>
+  <si>
+    <t>46|69</t>
+  </si>
+  <si>
+    <t>72|114</t>
+  </si>
+  <si>
+    <t>146|217</t>
+  </si>
+  <si>
+    <t>27|34</t>
+  </si>
+  <si>
+    <t>74|114</t>
+  </si>
+  <si>
+    <t>18|25</t>
+  </si>
+  <si>
+    <t>142|222</t>
+  </si>
+  <si>
+    <t>41|67</t>
+  </si>
+  <si>
+    <t>70|114</t>
+  </si>
+  <si>
+    <t>145|222</t>
+  </si>
+  <si>
+    <t>32|42</t>
+  </si>
+  <si>
+    <t>46|68</t>
+  </si>
+  <si>
+    <t>69|115</t>
+  </si>
+  <si>
+    <t>19|23</t>
+  </si>
+  <si>
+    <t>143|220</t>
+  </si>
+  <si>
+    <t>70|115</t>
+  </si>
+  <si>
+    <t>n060w8</t>
+  </si>
+  <si>
+    <t>171.25|235|420</t>
+  </si>
+  <si>
+    <t>105|210</t>
+  </si>
+  <si>
+    <t>220.5|301</t>
+  </si>
+  <si>
+    <t>182|232</t>
+  </si>
+  <si>
+    <t>46|54</t>
+  </si>
+  <si>
+    <t>90|123</t>
+  </si>
+  <si>
+    <t>33|42</t>
+  </si>
+  <si>
+    <t>179|234</t>
+  </si>
+  <si>
+    <t>46|59</t>
+  </si>
+  <si>
+    <t>90|118</t>
+  </si>
+  <si>
+    <t>30|41</t>
+  </si>
+  <si>
+    <t>187|234</t>
+  </si>
+  <si>
+    <t>30|38</t>
+  </si>
+  <si>
+    <t>43|55</t>
+  </si>
+  <si>
+    <t>94|122</t>
+  </si>
+  <si>
+    <t>183|237</t>
+  </si>
+  <si>
+    <t>29|38</t>
+  </si>
+  <si>
+    <t>46|57</t>
+  </si>
+  <si>
+    <t>90|122</t>
+  </si>
+  <si>
+    <t>31|42</t>
+  </si>
+  <si>
+    <t>181|235</t>
+  </si>
+  <si>
+    <t>32|41</t>
+  </si>
+  <si>
+    <t>93|123</t>
+  </si>
+  <si>
+    <t>181|237</t>
+  </si>
+  <si>
+    <t>43|56</t>
+  </si>
+  <si>
+    <t>91|123</t>
+  </si>
+  <si>
+    <t>193|238</t>
+  </si>
+  <si>
+    <t>38|46</t>
+  </si>
+  <si>
+    <t>57|58</t>
+  </si>
+  <si>
+    <t>30|42</t>
+  </si>
+  <si>
+    <t>179|235</t>
+  </si>
+  <si>
+    <t>29|35</t>
+  </si>
+  <si>
+    <t>15|16</t>
+  </si>
+  <si>
+    <t>91|122</t>
+  </si>
+  <si>
+    <t>186|239</t>
+  </si>
+  <si>
+    <t>35|48</t>
+  </si>
+  <si>
+    <t>43|58</t>
+  </si>
+  <si>
+    <t>34|42</t>
+  </si>
+  <si>
+    <t>181|234</t>
+  </si>
+  <si>
+    <t>35|43</t>
+  </si>
+  <si>
+    <t>44|57</t>
+  </si>
+  <si>
+    <t>n080w4</t>
+  </si>
+  <si>
+    <t>172|283.75|560</t>
+  </si>
+  <si>
+    <t>35|70</t>
+  </si>
+  <si>
+    <t>70|140</t>
+  </si>
+  <si>
+    <t>315|350</t>
   </si>
   <si>
     <t>140|140</t>
   </si>
   <si>
-    <t>69|69</t>
-  </si>
-  <si>
-    <t>138|138</t>
-  </si>
-  <si>
-    <t>31|31</t>
-  </si>
-  <si>
-    <t>137|137</t>
-  </si>
-  <si>
-    <t>41|41</t>
-  </si>
-  <si>
-    <t>66|66</t>
-  </si>
-  <si>
-    <t>141|141</t>
-  </si>
-  <si>
-    <t>149|149</t>
-  </si>
-  <si>
-    <t>45|45</t>
-  </si>
-  <si>
-    <t>139|139</t>
-  </si>
-  <si>
-    <t>147|147</t>
-  </si>
-  <si>
-    <t>n050w8</t>
-  </si>
-  <si>
-    <t>123.75|210|350</t>
-  </si>
-  <si>
-    <t>135|135</t>
-  </si>
-  <si>
-    <t>150|150</t>
-  </si>
-  <si>
-    <t>134|134</t>
-  </si>
-  <si>
-    <t>143|143</t>
-  </si>
-  <si>
-    <t>142|142</t>
-  </si>
-  <si>
-    <t>n060w4</t>
-  </si>
-  <si>
-    <t>123|209.75|420</t>
-  </si>
-  <si>
-    <t>129.5|259</t>
-  </si>
-  <si>
-    <t>210|315</t>
-  </si>
-  <si>
-    <t>77|77</t>
-  </si>
-  <si>
-    <t>72|72</t>
-  </si>
-  <si>
-    <t>146|146</t>
-  </si>
-  <si>
-    <t>74|74</t>
-  </si>
-  <si>
-    <t>145|145</t>
-  </si>
-  <si>
-    <t>n060w8</t>
-  </si>
-  <si>
-    <t>171.25|235|420</t>
-  </si>
-  <si>
-    <t>105|210</t>
-  </si>
-  <si>
-    <t>220.5|301</t>
-  </si>
-  <si>
-    <t>182|182</t>
-  </si>
-  <si>
-    <t>179|179</t>
-  </si>
-  <si>
-    <t>187|187</t>
-  </si>
-  <si>
-    <t>94|94</t>
-  </si>
-  <si>
-    <t>183|183</t>
-  </si>
-  <si>
-    <t>181|181</t>
-  </si>
-  <si>
-    <t>93|93</t>
-  </si>
-  <si>
-    <t>193|193</t>
-  </si>
-  <si>
-    <t>186|186</t>
-  </si>
-  <si>
-    <t>n080w4</t>
-  </si>
-  <si>
-    <t>172|283.75|560</t>
-  </si>
-  <si>
-    <t>35|70</t>
-  </si>
-  <si>
-    <t>70|140</t>
-  </si>
-  <si>
-    <t>315|350</t>
-  </si>
-  <si>
-    <t>195|195</t>
-  </si>
-  <si>
-    <t>194|194</t>
-  </si>
-  <si>
-    <t>200|200</t>
-  </si>
-  <si>
-    <t>192|192</t>
-  </si>
-  <si>
-    <t>197|197</t>
-  </si>
-  <si>
-    <t>114|114</t>
+    <t>195|284</t>
+  </si>
+  <si>
+    <t>38|53</t>
+  </si>
+  <si>
+    <t>17|24</t>
+  </si>
+  <si>
+    <t>107|167</t>
+  </si>
+  <si>
+    <t>36|52</t>
+  </si>
+  <si>
+    <t>194|295</t>
+  </si>
+  <si>
+    <t>37|59</t>
+  </si>
+  <si>
+    <t>33|39</t>
+  </si>
+  <si>
+    <t>110|173</t>
+  </si>
+  <si>
+    <t>36|61</t>
+  </si>
+  <si>
+    <t>200|298</t>
+  </si>
+  <si>
+    <t>35|52</t>
+  </si>
+  <si>
+    <t>38|41</t>
+  </si>
+  <si>
+    <t>110|172</t>
+  </si>
+  <si>
+    <t>35|62</t>
+  </si>
+  <si>
+    <t>192|295</t>
+  </si>
+  <si>
+    <t>39|49</t>
+  </si>
+  <si>
+    <t>16|22</t>
+  </si>
+  <si>
+    <t>108|171</t>
+  </si>
+  <si>
+    <t>34|61</t>
+  </si>
+  <si>
+    <t>200|300</t>
+  </si>
+  <si>
+    <t>38|50</t>
+  </si>
+  <si>
+    <t>21|24</t>
+  </si>
+  <si>
+    <t>37|41</t>
+  </si>
+  <si>
+    <t>107|173</t>
+  </si>
+  <si>
+    <t>195|300</t>
+  </si>
+  <si>
+    <t>36|51</t>
+  </si>
+  <si>
+    <t>36|44</t>
+  </si>
+  <si>
+    <t>108|172</t>
+  </si>
+  <si>
+    <t>197|294</t>
+  </si>
+  <si>
+    <t>36|48</t>
+  </si>
+  <si>
+    <t>15|24</t>
+  </si>
+  <si>
+    <t>114|167</t>
+  </si>
+  <si>
+    <t>195|289</t>
+  </si>
+  <si>
+    <t>35|51</t>
+  </si>
+  <si>
+    <t>33|41</t>
+  </si>
+  <si>
+    <t>107|163</t>
+  </si>
+  <si>
+    <t>36|62</t>
+  </si>
+  <si>
+    <t>194|294</t>
+  </si>
+  <si>
+    <t>36|50</t>
+  </si>
+  <si>
+    <t>40|56</t>
+  </si>
+  <si>
+    <t>192|297</t>
+  </si>
+  <si>
+    <t>36|56</t>
+  </si>
+  <si>
+    <t>34|60</t>
   </si>
   <si>
     <t>n080w8</t>
@@ -588,28 +1461,121 @@
     <t>143.875|253.125|560</t>
   </si>
   <si>
-    <t>162|162</t>
-  </si>
-  <si>
-    <t>164|164</t>
-  </si>
-  <si>
-    <t>166|166</t>
-  </si>
-  <si>
-    <t>160|160</t>
-  </si>
-  <si>
-    <t>170|170</t>
-  </si>
-  <si>
-    <t>161|161</t>
-  </si>
-  <si>
-    <t>168|168</t>
-  </si>
-  <si>
-    <t>167|167</t>
+    <t>162|258</t>
+  </si>
+  <si>
+    <t>33|51</t>
+  </si>
+  <si>
+    <t>28|37</t>
+  </si>
+  <si>
+    <t>87|154</t>
+  </si>
+  <si>
+    <t>32|49</t>
+  </si>
+  <si>
+    <t>164|265</t>
+  </si>
+  <si>
+    <t>29|50</t>
+  </si>
+  <si>
+    <t>87|155</t>
+  </si>
+  <si>
+    <t>32|54</t>
+  </si>
+  <si>
+    <t>166|261</t>
+  </si>
+  <si>
+    <t>31|49</t>
+  </si>
+  <si>
+    <t>89|150</t>
+  </si>
+  <si>
+    <t>32|53</t>
+  </si>
+  <si>
+    <t>160|257</t>
+  </si>
+  <si>
+    <t>30|48</t>
+  </si>
+  <si>
+    <t>12|21</t>
+  </si>
+  <si>
+    <t>87|146</t>
+  </si>
+  <si>
+    <t>33|54</t>
+  </si>
+  <si>
+    <t>170|260</t>
+  </si>
+  <si>
+    <t>31|46</t>
+  </si>
+  <si>
+    <t>15|21</t>
+  </si>
+  <si>
+    <t>92|150</t>
+  </si>
+  <si>
+    <t>35|50</t>
+  </si>
+  <si>
+    <t>166|264</t>
+  </si>
+  <si>
+    <t>26|47</t>
+  </si>
+  <si>
+    <t>88|154</t>
+  </si>
+  <si>
+    <t>161|259</t>
+  </si>
+  <si>
+    <t>13|21</t>
+  </si>
+  <si>
+    <t>87|152</t>
+  </si>
+  <si>
+    <t>33|50</t>
+  </si>
+  <si>
+    <t>164|264</t>
+  </si>
+  <si>
+    <t>31|51</t>
+  </si>
+  <si>
+    <t>32|51</t>
+  </si>
+  <si>
+    <t>168|262</t>
+  </si>
+  <si>
+    <t>31|45</t>
+  </si>
+  <si>
+    <t>90|155</t>
+  </si>
+  <si>
+    <t>167|266</t>
+  </si>
+  <si>
+    <t>27|42</t>
+  </si>
+  <si>
+    <t>36|53</t>
   </si>
   <si>
     <t>n100w4</t>
@@ -630,136 +1596,520 @@
     <t>175|175</t>
   </si>
   <si>
-    <t>206|206</t>
-  </si>
-  <si>
-    <t>209|209</t>
-  </si>
-  <si>
-    <t>207|207</t>
-  </si>
-  <si>
-    <t>213|213</t>
+    <t>206|321</t>
+  </si>
+  <si>
+    <t>33|56</t>
+  </si>
+  <si>
+    <t>45|62</t>
+  </si>
+  <si>
+    <t>103|167</t>
+  </si>
+  <si>
+    <t>41|68</t>
+  </si>
+  <si>
+    <t>209|319</t>
+  </si>
+  <si>
+    <t>33|52</t>
+  </si>
+  <si>
+    <t>103|169</t>
+  </si>
+  <si>
+    <t>42|67</t>
+  </si>
+  <si>
+    <t>206|317</t>
+  </si>
+  <si>
+    <t>41|55</t>
+  </si>
+  <si>
+    <t>43|59</t>
+  </si>
+  <si>
+    <t>103|165</t>
+  </si>
+  <si>
+    <t>207|319</t>
+  </si>
+  <si>
+    <t>30|54</t>
+  </si>
+  <si>
+    <t>16|25</t>
+  </si>
+  <si>
+    <t>106|168</t>
+  </si>
+  <si>
+    <t>41|70</t>
+  </si>
+  <si>
+    <t>213|322</t>
+  </si>
+  <si>
+    <t>39|54</t>
+  </si>
+  <si>
+    <t>110|169</t>
+  </si>
+  <si>
+    <t>213|325</t>
+  </si>
+  <si>
+    <t>41|53</t>
+  </si>
+  <si>
+    <t>41|62</t>
+  </si>
+  <si>
+    <t>108|168</t>
+  </si>
+  <si>
+    <t>44|70</t>
+  </si>
+  <si>
+    <t>210|320</t>
+  </si>
+  <si>
+    <t>37|54</t>
+  </si>
+  <si>
+    <t>47|59</t>
+  </si>
+  <si>
+    <t>104|170</t>
+  </si>
+  <si>
+    <t>216|320</t>
+  </si>
+  <si>
+    <t>104|169</t>
+  </si>
+  <si>
+    <t>205|320</t>
+  </si>
+  <si>
+    <t>42|61</t>
+  </si>
+  <si>
+    <t>105|168</t>
+  </si>
+  <si>
+    <t>212|321</t>
+  </si>
+  <si>
+    <t>45|60</t>
+  </si>
+  <si>
+    <t>110|166</t>
+  </si>
+  <si>
+    <t>n100w8</t>
+  </si>
+  <si>
+    <t>180.75|303.5|700</t>
+  </si>
+  <si>
+    <t>195|307</t>
+  </si>
+  <si>
+    <t>33|48</t>
+  </si>
+  <si>
+    <t>41|59</t>
+  </si>
+  <si>
+    <t>100|158</t>
+  </si>
+  <si>
+    <t>39|67</t>
+  </si>
+  <si>
+    <t>201|303</t>
+  </si>
+  <si>
+    <t>34|50</t>
+  </si>
+  <si>
+    <t>41|52</t>
+  </si>
+  <si>
+    <t>105|161</t>
+  </si>
+  <si>
+    <t>39|66</t>
+  </si>
+  <si>
+    <t>194|301</t>
+  </si>
+  <si>
+    <t>29|52</t>
+  </si>
+  <si>
+    <t>14|21</t>
+  </si>
+  <si>
+    <t>97|157</t>
+  </si>
+  <si>
+    <t>40|67</t>
+  </si>
+  <si>
+    <t>41|60</t>
+  </si>
+  <si>
+    <t>101|158</t>
+  </si>
+  <si>
+    <t>198|297</t>
+  </si>
+  <si>
+    <t>38|54</t>
+  </si>
+  <si>
+    <t>101|151</t>
+  </si>
+  <si>
+    <t>198|309</t>
+  </si>
+  <si>
+    <t>33|49</t>
+  </si>
+  <si>
+    <t>42|59</t>
+  </si>
+  <si>
+    <t>102|160</t>
+  </si>
+  <si>
+    <t>196|306</t>
+  </si>
+  <si>
+    <t>39|52</t>
+  </si>
+  <si>
+    <t>40|54</t>
+  </si>
+  <si>
+    <t>97|161</t>
+  </si>
+  <si>
+    <t>198|304</t>
+  </si>
+  <si>
+    <t>34|47</t>
+  </si>
+  <si>
+    <t>102|157</t>
+  </si>
+  <si>
+    <t>204|303</t>
+  </si>
+  <si>
+    <t>36|46</t>
+  </si>
+  <si>
+    <t>104|155</t>
+  </si>
+  <si>
+    <t>189|304</t>
+  </si>
+  <si>
+    <t>36|55</t>
+  </si>
+  <si>
+    <t>14|24</t>
+  </si>
+  <si>
+    <t>39|59</t>
+  </si>
+  <si>
+    <t>97|160</t>
+  </si>
+  <si>
+    <t>39|61</t>
+  </si>
+  <si>
+    <t>n120w4</t>
+  </si>
+  <si>
+    <t>341|472.75|840</t>
+  </si>
+  <si>
+    <t>175|350</t>
+  </si>
+  <si>
+    <t>385|490</t>
   </si>
   <si>
     <t>210|210</t>
   </si>
   <si>
-    <t>47|47</t>
-  </si>
-  <si>
-    <t>216|216</t>
-  </si>
-  <si>
-    <t>205|205</t>
-  </si>
-  <si>
-    <t>212|212</t>
-  </si>
-  <si>
-    <t>n100w8</t>
-  </si>
-  <si>
-    <t>180.75|303.5|700</t>
-  </si>
-  <si>
-    <t>100|100</t>
-  </si>
-  <si>
-    <t>201|201</t>
-  </si>
-  <si>
-    <t>97|97</t>
-  </si>
-  <si>
-    <t>198|198</t>
-  </si>
-  <si>
-    <t>196|196</t>
-  </si>
-  <si>
-    <t>204|204</t>
-  </si>
-  <si>
-    <t>189|189</t>
-  </si>
-  <si>
-    <t>n120w4</t>
-  </si>
-  <si>
-    <t>341|472.75|840</t>
-  </si>
-  <si>
-    <t>175|350</t>
-  </si>
-  <si>
-    <t>385|490</t>
-  </si>
-  <si>
-    <t>353|353</t>
-  </si>
-  <si>
-    <t>76|76</t>
-  </si>
-  <si>
-    <t>157|157</t>
-  </si>
-  <si>
-    <t>358|358</t>
-  </si>
-  <si>
-    <t>79|79</t>
-  </si>
-  <si>
-    <t>155|155</t>
-  </si>
-  <si>
-    <t>362|362</t>
-  </si>
-  <si>
-    <t>354|354</t>
-  </si>
-  <si>
-    <t>357|357</t>
-  </si>
-  <si>
-    <t>78|78</t>
-  </si>
-  <si>
-    <t>366|366</t>
-  </si>
-  <si>
-    <t>355|355</t>
-  </si>
-  <si>
-    <t>159|159</t>
-  </si>
-  <si>
-    <t>360|360</t>
-  </si>
-  <si>
-    <t>165|165</t>
-  </si>
-  <si>
-    <t>359|359</t>
+    <t>353|468</t>
+  </si>
+  <si>
+    <t>55|71</t>
+  </si>
+  <si>
+    <t>32|43</t>
+  </si>
+  <si>
+    <t>76|91</t>
+  </si>
+  <si>
+    <t>157|214</t>
+  </si>
+  <si>
+    <t>88|120</t>
+  </si>
+  <si>
+    <t>358|478</t>
+  </si>
+  <si>
+    <t>60|85</t>
+  </si>
+  <si>
+    <t>33|43</t>
+  </si>
+  <si>
+    <t>79|104</t>
+  </si>
+  <si>
+    <t>155|212</t>
+  </si>
+  <si>
+    <t>91|119</t>
+  </si>
+  <si>
+    <t>362|478</t>
+  </si>
+  <si>
+    <t>63|77</t>
+  </si>
+  <si>
+    <t>82|102</t>
+  </si>
+  <si>
+    <t>160|213</t>
+  </si>
+  <si>
+    <t>87|120</t>
+  </si>
+  <si>
+    <t>354|474</t>
+  </si>
+  <si>
+    <t>56|73</t>
+  </si>
+  <si>
+    <t>79|99</t>
+  </si>
+  <si>
+    <t>155|215</t>
+  </si>
+  <si>
+    <t>87|119</t>
+  </si>
+  <si>
+    <t>362|471</t>
+  </si>
+  <si>
+    <t>57|76</t>
+  </si>
+  <si>
+    <t>31|43</t>
+  </si>
+  <si>
+    <t>161|208</t>
+  </si>
+  <si>
+    <t>88|118</t>
+  </si>
+  <si>
+    <t>357|478</t>
+  </si>
+  <si>
+    <t>47|70</t>
+  </si>
+  <si>
+    <t>78|101</t>
+  </si>
+  <si>
+    <t>157|215</t>
+  </si>
+  <si>
+    <t>366|474</t>
+  </si>
+  <si>
+    <t>64|75</t>
+  </si>
+  <si>
+    <t>80|104</t>
+  </si>
+  <si>
+    <t>162|209</t>
+  </si>
+  <si>
+    <t>92|119</t>
+  </si>
+  <si>
+    <t>355|478</t>
+  </si>
+  <si>
+    <t>76|104</t>
+  </si>
+  <si>
+    <t>159|212</t>
+  </si>
+  <si>
+    <t>360|476</t>
+  </si>
+  <si>
+    <t>61|79</t>
+  </si>
+  <si>
+    <t>77|102</t>
+  </si>
+  <si>
+    <t>165|215</t>
+  </si>
+  <si>
+    <t>87|117</t>
+  </si>
+  <si>
+    <t>359|477</t>
+  </si>
+  <si>
+    <t>57|77</t>
+  </si>
+  <si>
+    <t>39|42</t>
+  </si>
+  <si>
+    <t>78|102</t>
+  </si>
+  <si>
+    <t>155|213</t>
   </si>
   <si>
     <t>n120w8</t>
   </si>
   <si>
-    <t>361|361</t>
-  </si>
-  <si>
-    <t>352|352</t>
-  </si>
-  <si>
-    <t>75|75</t>
-  </si>
-  <si>
-    <t>356|356</t>
-  </si>
-  <si>
-    <t>158|158</t>
+    <t>361|480</t>
+  </si>
+  <si>
+    <t>54|76</t>
+  </si>
+  <si>
+    <t>161|214</t>
+  </si>
+  <si>
+    <t>92|120</t>
+  </si>
+  <si>
+    <t>353|476</t>
+  </si>
+  <si>
+    <t>54|72</t>
+  </si>
+  <si>
+    <t>76|103</t>
+  </si>
+  <si>
+    <t>89|118</t>
+  </si>
+  <si>
+    <t>55|82</t>
+  </si>
+  <si>
+    <t>78|103</t>
+  </si>
+  <si>
+    <t>159|214</t>
+  </si>
+  <si>
+    <t>93|120</t>
+  </si>
+  <si>
+    <t>352|463</t>
+  </si>
+  <si>
+    <t>60|77</t>
+  </si>
+  <si>
+    <t>75|97</t>
+  </si>
+  <si>
+    <t>159|211</t>
+  </si>
+  <si>
+    <t>87|113</t>
+  </si>
+  <si>
+    <t>60|83</t>
+  </si>
+  <si>
+    <t>87|118</t>
+  </si>
+  <si>
+    <t>356|476</t>
+  </si>
+  <si>
+    <t>60|79</t>
+  </si>
+  <si>
+    <t>160|209</t>
+  </si>
+  <si>
+    <t>359|478</t>
+  </si>
+  <si>
+    <t>34|43</t>
+  </si>
+  <si>
+    <t>158|211</t>
+  </si>
+  <si>
+    <t>358|473</t>
+  </si>
+  <si>
+    <t>60|80</t>
+  </si>
+  <si>
+    <t>79|102</t>
+  </si>
+  <si>
+    <t>158|215</t>
+  </si>
+  <si>
+    <t>89|114</t>
+  </si>
+  <si>
+    <t>354|479</t>
+  </si>
+  <si>
+    <t>54|77</t>
+  </si>
+  <si>
+    <t>155|214</t>
+  </si>
+  <si>
+    <t>90|120</t>
+  </si>
+  <si>
+    <t>57|75</t>
+  </si>
+  <si>
+    <t>76|96</t>
+  </si>
+  <si>
+    <t>158|213</t>
   </si>
 </sst>
 </file>
@@ -1686,9 +3036,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1757,14 +3105,12 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -1773,10 +3119,10 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1792,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1811,16 +3157,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1830,16 +3176,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1849,16 +3195,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1868,16 +3214,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1887,16 +3233,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1906,16 +3252,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1925,16 +3271,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1944,16 +3290,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1963,16 +3309,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2022,19 +3368,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
         <v>7.5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2043,14 +3389,12 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
@@ -2059,10 +3403,10 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -2078,16 +3422,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2097,16 +3441,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2116,16 +3460,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2135,16 +3479,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2154,16 +3498,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2173,16 +3517,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2192,16 +3536,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2211,16 +3555,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2230,16 +3574,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2249,16 +3593,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2304,47 +3648,45 @@
         <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2">
         <v>17.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2353,10 +3695,10 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -2365,10 +3707,10 @@
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -2376,22 +3718,22 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -2399,22 +3741,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -2422,22 +3764,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2445,22 +3787,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2468,22 +3810,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2491,22 +3833,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -2514,22 +3856,22 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2537,22 +3879,22 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2560,22 +3902,22 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2583,22 +3925,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2642,47 +3984,45 @@
         <v>7</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2691,10 +4031,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -2703,10 +4043,10 @@
         <v>7</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2714,22 +4054,22 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2737,22 +4077,22 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -2760,22 +4100,22 @@
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2783,22 +4123,22 @@
         <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2806,22 +4146,22 @@
         <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2829,22 +4169,22 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -2852,22 +4192,22 @@
         <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -2875,22 +4215,22 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2898,22 +4238,22 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2921,22 +4261,22 @@
         <v>9</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2980,47 +4320,45 @@
         <v>7</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C67" s="2">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3029,10 +4367,10 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -3041,10 +4379,10 @@
         <v>7</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -3052,22 +4390,22 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -3075,22 +4413,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -3098,22 +4436,22 @@
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -3121,22 +4459,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -3144,22 +4482,22 @@
         <v>4</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -3167,22 +4505,22 @@
         <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -3190,22 +4528,22 @@
         <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -3213,22 +4551,22 @@
         <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -3236,22 +4574,22 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -3259,22 +4597,22 @@
         <v>9</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -3318,47 +4656,45 @@
         <v>7</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="C83" s="2">
         <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3367,10 +4703,10 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -3379,10 +4715,10 @@
         <v>7</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -3390,22 +4726,22 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -3413,22 +4749,22 @@
         <v>1</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -3436,22 +4772,22 @@
         <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -3459,22 +4795,22 @@
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -3482,22 +4818,22 @@
         <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -3505,22 +4841,22 @@
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -3528,22 +4864,22 @@
         <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -3551,22 +4887,22 @@
         <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -3574,22 +4910,22 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -3597,22 +4933,22 @@
         <v>9</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -3656,47 +4992,45 @@
         <v>7</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="C99" s="2">
         <v>31.5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3705,10 +5039,10 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
@@ -3717,10 +5051,10 @@
         <v>7</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -3728,22 +5062,22 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -3751,22 +5085,22 @@
         <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -3774,22 +5108,22 @@
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -3797,22 +5131,22 @@
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -3820,22 +5154,22 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -3843,22 +5177,22 @@
         <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -3866,22 +5200,22 @@
         <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -3889,22 +5223,22 @@
         <v>7</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -3912,22 +5246,22 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -3935,22 +5269,22 @@
         <v>9</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -3994,47 +5328,45 @@
         <v>7</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="C115" s="2">
         <v>44</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -4043,10 +5375,10 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>6</v>
@@ -4055,10 +5387,10 @@
         <v>7</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -4066,22 +5398,22 @@
         <v>0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -4089,22 +5421,22 @@
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -4112,22 +5444,22 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -4135,22 +5467,22 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>68</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -4158,22 +5490,22 @@
         <v>4</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -4181,22 +5513,22 @@
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -4204,22 +5536,22 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -4227,22 +5559,22 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -4250,22 +5582,22 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -4273,22 +5605,22 @@
         <v>9</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -4332,47 +5664,45 @@
         <v>7</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="C131" s="2">
         <v>44</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4381,10 +5711,10 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>6</v>
@@ -4393,10 +5723,10 @@
         <v>7</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -4404,22 +5734,22 @@
         <v>0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -4427,22 +5757,22 @@
         <v>1</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>113</v>
+        <v>322</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>68</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -4450,22 +5780,22 @@
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -4473,22 +5803,22 @@
         <v>3</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -4496,22 +5826,22 @@
         <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>65</v>
+        <v>333</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -4519,22 +5849,22 @@
         <v>5</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -4542,22 +5872,22 @@
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>66</v>
+        <v>337</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -4565,22 +5895,22 @@
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>145</v>
+        <v>339</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>71</v>
+        <v>341</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>26</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -4588,22 +5918,22 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>113</v>
+        <v>343</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -4611,22 +5941,22 @@
         <v>9</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>139</v>
+        <v>344</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -4670,47 +6000,45 @@
         <v>7</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>347</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="C147" s="2">
         <v>47</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>157</v>
+        <v>350</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -4719,10 +6047,10 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>6</v>
@@ -4731,10 +6059,10 @@
         <v>7</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -4742,22 +6070,22 @@
         <v>0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -4765,22 +6093,22 @@
         <v>1</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>109</v>
+        <v>355</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -4788,22 +6116,22 @@
         <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>153</v>
+        <v>357</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -4811,22 +6139,22 @@
         <v>3</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>145</v>
+        <v>361</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>48</v>
+        <v>364</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -4834,22 +6162,22 @@
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>366</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>22</v>
+        <v>367</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -4857,22 +6185,22 @@
         <v>5</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>143</v>
+        <v>368</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>107</v>
+        <v>369</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -4880,22 +6208,22 @@
         <v>6</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>160</v>
+        <v>372</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>113</v>
+        <v>373</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>29</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -4903,22 +6231,22 @@
         <v>7</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>376</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>113</v>
+        <v>322</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -4926,22 +6254,22 @@
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>162</v>
+        <v>379</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>34</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -4949,22 +6277,22 @@
         <v>9</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -5008,47 +6336,45 @@
         <v>7</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>164</v>
+        <v>387</v>
       </c>
       <c r="C163" s="2">
         <v>51</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>165</v>
+        <v>388</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>166</v>
+        <v>389</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1"/>
+      <c r="D164" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -5057,10 +6383,10 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>6</v>
@@ -5069,10 +6395,10 @@
         <v>7</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -5080,22 +6406,22 @@
         <v>0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>167</v>
+        <v>390</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>51</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -5103,22 +6429,22 @@
         <v>1</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>168</v>
+        <v>394</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>109</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -5126,22 +6452,22 @@
         <v>2</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>169</v>
+        <v>398</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -5149,22 +6475,22 @@
         <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -5172,22 +6498,22 @@
         <v>4</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>172</v>
+        <v>407</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -5195,22 +6521,22 @@
         <v>5</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>172</v>
+        <v>410</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>48</v>
+        <v>411</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
@@ -5218,22 +6544,22 @@
         <v>6</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>174</v>
+        <v>413</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>53</v>
+        <v>414</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>125</v>
+        <v>415</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>109</v>
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -5241,22 +6567,22 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>107</v>
+        <v>418</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>21</v>
+        <v>419</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>109</v>
+        <v>416</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -5264,22 +6590,22 @@
         <v>8</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>175</v>
+        <v>421</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>54</v>
+        <v>422</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>48</v>
+        <v>423</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>42</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -5287,22 +6613,22 @@
         <v>9</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>54</v>
+        <v>426</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -5346,47 +6672,45 @@
         <v>7</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>176</v>
+        <v>428</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>177</v>
+        <v>429</v>
       </c>
       <c r="C179" s="2">
         <v>61</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>178</v>
+        <v>430</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>135</v>
+        <v>433</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1"/>
+      <c r="D180" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -5395,10 +6719,10 @@
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>6</v>
@@ -5407,10 +6731,10 @@
         <v>7</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -5418,22 +6742,22 @@
         <v>0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>53</v>
+        <v>435</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>128</v>
+        <v>437</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>47</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -5441,22 +6765,22 @@
         <v>1</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>182</v>
+        <v>439</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>57</v>
+        <v>440</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>51</v>
+        <v>441</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>124</v>
+        <v>442</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>47</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -5464,22 +6788,22 @@
         <v>2</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>183</v>
+        <v>444</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>54</v>
+        <v>445</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>53</v>
+        <v>446</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>124</v>
+        <v>447</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>54</v>
+        <v>448</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -5487,22 +6811,22 @@
         <v>3</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>184</v>
+        <v>449</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>24</v>
+        <v>451</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>119</v>
+        <v>452</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>42</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
@@ -5510,22 +6834,22 @@
         <v>4</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>183</v>
+        <v>454</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>53</v>
+        <v>455</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>30</v>
+        <v>456</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>57</v>
+        <v>457</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>128</v>
+        <v>458</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>54</v>
+        <v>448</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
@@ -5533,22 +6857,22 @@
         <v>5</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>181</v>
+        <v>459</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>47</v>
+        <v>461</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>119</v>
+        <v>462</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>47</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -5556,22 +6880,22 @@
         <v>6</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>47</v>
+        <v>464</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>186</v>
+        <v>466</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>42</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -5579,22 +6903,22 @@
         <v>7</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>54</v>
+        <v>468</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>34</v>
+        <v>383</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>47</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -5602,22 +6926,22 @@
         <v>8</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>182</v>
+        <v>472</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>47</v>
+        <v>473</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>128</v>
+        <v>458</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>95</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -5625,22 +6949,22 @@
         <v>9</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>184</v>
+        <v>475</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>47</v>
+        <v>476</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>124</v>
+        <v>442</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>42</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
@@ -5684,47 +7008,45 @@
         <v>7</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>187</v>
+        <v>478</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>188</v>
+        <v>479</v>
       </c>
       <c r="C195" s="2">
         <v>61</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>178</v>
+        <v>430</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>135</v>
+        <v>433</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1"/>
+      <c r="D196" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -5733,10 +7055,10 @@
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>6</v>
@@ -5745,10 +7067,10 @@
         <v>7</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -5756,22 +7078,22 @@
         <v>0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>51</v>
+        <v>481</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>45</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -5779,22 +7101,22 @@
         <v>1</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>190</v>
+        <v>485</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>107</v>
+        <v>486</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>94</v>
+        <v>487</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>45</v>
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -5802,22 +7124,22 @@
         <v>2</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>191</v>
+        <v>489</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>138</v>
+        <v>490</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>45</v>
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -5825,22 +7147,22 @@
         <v>3</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>192</v>
+        <v>493</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>109</v>
+        <v>494</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>41</v>
+        <v>495</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>94</v>
+        <v>496</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>51</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
@@ -5848,22 +7170,22 @@
         <v>4</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>86</v>
+        <v>501</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>54</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -5871,22 +7193,22 @@
         <v>5</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>191</v>
+        <v>503</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>27</v>
+        <v>504</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>96</v>
+        <v>505</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>51</v>
+        <v>497</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -5894,22 +7216,22 @@
         <v>6</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>194</v>
+        <v>506</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>109</v>
+        <v>494</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>50</v>
+        <v>507</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>94</v>
+        <v>508</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>51</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -5917,22 +7239,22 @@
         <v>7</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>190</v>
+        <v>510</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>94</v>
+        <v>487</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>45</v>
+        <v>512</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -5940,22 +7262,22 @@
         <v>8</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>195</v>
+        <v>513</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>138</v>
+        <v>514</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>54</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -5963,22 +7285,22 @@
         <v>9</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>196</v>
+        <v>516</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>113</v>
+        <v>517</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>96</v>
+        <v>505</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>47</v>
+        <v>518</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
@@ -6022,47 +7344,45 @@
         <v>7</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>197</v>
+        <v>519</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>198</v>
+        <v>520</v>
       </c>
       <c r="C211" s="2">
         <v>75</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>199</v>
+        <v>521</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>200</v>
+        <v>522</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>201</v>
+        <v>523</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>202</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1"/>
+      <c r="D212" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -6071,10 +7391,10 @@
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
       <c r="B213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>6</v>
@@ -6083,10 +7403,10 @@
         <v>7</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -6094,22 +7414,22 @@
         <v>0</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>203</v>
+        <v>525</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>51</v>
+        <v>526</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>144</v>
+        <v>527</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>84</v>
+        <v>528</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>140</v>
+        <v>529</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -6117,22 +7437,22 @@
         <v>1</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>204</v>
+        <v>530</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>51</v>
+        <v>531</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>84</v>
+        <v>532</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>81</v>
+        <v>533</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
@@ -6140,22 +7460,22 @@
         <v>2</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>140</v>
+        <v>535</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>48</v>
+        <v>536</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>84</v>
+        <v>537</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
@@ -6163,22 +7483,22 @@
         <v>3</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>205</v>
+        <v>538</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>24</v>
+        <v>540</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>126</v>
+        <v>541</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>140</v>
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -6186,22 +7506,22 @@
         <v>4</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>206</v>
+        <v>543</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>90</v>
+        <v>544</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>140</v>
+        <v>529</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -6209,22 +7529,22 @@
         <v>5</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>206</v>
+        <v>546</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>140</v>
+        <v>547</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>140</v>
+        <v>548</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>119</v>
+        <v>549</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
@@ -6232,22 +7552,22 @@
         <v>6</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>207</v>
+        <v>551</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>57</v>
+        <v>552</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>123</v>
+        <v>554</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -6255,22 +7575,22 @@
         <v>7</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>209</v>
+        <v>555</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>123</v>
+        <v>556</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
@@ -6278,22 +7598,22 @@
         <v>8</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>210</v>
+        <v>557</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>51</v>
+        <v>481</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>121</v>
+        <v>559</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -6301,22 +7621,22 @@
         <v>9</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>211</v>
+        <v>560</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>47</v>
+        <v>438</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>24</v>
+        <v>540</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>144</v>
+        <v>561</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>124</v>
+        <v>562</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>140</v>
+        <v>542</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -6360,47 +7680,45 @@
         <v>7</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>212</v>
+        <v>563</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>213</v>
+        <v>564</v>
       </c>
       <c r="C227" s="2">
         <v>62.5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>199</v>
+        <v>521</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>200</v>
+        <v>522</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>201</v>
+        <v>523</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>202</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="1"/>
+      <c r="D228" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -6409,10 +7727,10 @@
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" s="1"/>
       <c r="B229" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>6</v>
@@ -6421,10 +7739,10 @@
         <v>7</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -6432,22 +7750,22 @@
         <v>0</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>181</v>
+        <v>565</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>51</v>
+        <v>566</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>140</v>
+        <v>567</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>214</v>
+        <v>568</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>90</v>
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
@@ -6455,22 +7773,22 @@
         <v>1</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>215</v>
+        <v>570</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>42</v>
+        <v>571</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>140</v>
+        <v>572</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>121</v>
+        <v>573</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>90</v>
+        <v>574</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
@@ -6478,22 +7796,22 @@
         <v>2</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>182</v>
+        <v>575</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>107</v>
+        <v>576</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>32</v>
+        <v>577</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>48</v>
+        <v>411</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>216</v>
+        <v>578</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>95</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -6501,22 +7819,22 @@
         <v>3</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>181</v>
+        <v>565</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>54</v>
+        <v>468</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>90</v>
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
@@ -6524,22 +7842,22 @@
         <v>4</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>217</v>
+        <v>582</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>53</v>
+        <v>583</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
@@ -6547,22 +7865,22 @@
         <v>5</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>217</v>
+        <v>585</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>51</v>
+        <v>586</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>127</v>
+        <v>588</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>90</v>
+        <v>574</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -6570,22 +7888,22 @@
         <v>6</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>218</v>
+        <v>589</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>90</v>
+        <v>590</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>95</v>
+        <v>591</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>216</v>
+        <v>592</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
@@ -6593,22 +7911,22 @@
         <v>7</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>217</v>
+        <v>593</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>95</v>
+        <v>474</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>127</v>
+        <v>595</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>95</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
@@ -6616,22 +7934,22 @@
         <v>8</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>219</v>
+        <v>596</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>47</v>
+        <v>597</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>140</v>
+        <v>567</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>123</v>
+        <v>598</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -6639,22 +7957,22 @@
         <v>9</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>220</v>
+        <v>599</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>47</v>
+        <v>600</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>32</v>
+        <v>601</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>90</v>
+        <v>602</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>216</v>
+        <v>603</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>90</v>
+        <v>604</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
@@ -6698,47 +8016,45 @@
         <v>7</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>221</v>
+        <v>605</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>222</v>
+        <v>606</v>
       </c>
       <c r="C243" s="2">
         <v>102</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>223</v>
+        <v>607</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>224</v>
+        <v>608</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>207</v>
+        <v>609</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="1"/>
+      <c r="D244" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -6747,10 +8063,10 @@
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245" s="1"/>
       <c r="B245" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>6</v>
@@ -6759,10 +8075,10 @@
         <v>7</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
@@ -6770,22 +8086,22 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>225</v>
+        <v>610</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>122</v>
+        <v>611</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>45</v>
+        <v>612</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>226</v>
+        <v>613</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>227</v>
+        <v>614</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>96</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
@@ -6793,22 +8109,22 @@
         <v>1</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>228</v>
+        <v>616</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>108</v>
+        <v>617</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>51</v>
+        <v>618</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>229</v>
+        <v>619</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>77</v>
+        <v>621</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -6816,22 +8132,22 @@
         <v>2</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>231</v>
+        <v>622</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>71</v>
+        <v>623</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>51</v>
+        <v>618</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>97</v>
+        <v>624</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>192</v>
+        <v>625</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>94</v>
+        <v>626</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -6839,22 +8155,22 @@
         <v>3</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>232</v>
+        <v>627</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>103</v>
+        <v>628</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>229</v>
+        <v>629</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>230</v>
+        <v>630</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>94</v>
+        <v>631</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
@@ -6862,22 +8178,22 @@
         <v>4</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>231</v>
+        <v>632</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>125</v>
+        <v>633</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>138</v>
+        <v>634</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>97</v>
+        <v>624</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>194</v>
+        <v>635</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>96</v>
+        <v>636</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -6885,22 +8201,22 @@
         <v>5</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>233</v>
+        <v>637</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>208</v>
+        <v>638</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>234</v>
+        <v>639</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>227</v>
+        <v>640</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>96</v>
+        <v>615</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
@@ -6908,22 +8224,22 @@
         <v>6</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>235</v>
+        <v>641</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>65</v>
+        <v>642</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>93</v>
+        <v>643</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>189</v>
+        <v>644</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>86</v>
+        <v>645</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -6931,22 +8247,22 @@
         <v>7</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>236</v>
+        <v>646</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>108</v>
+        <v>617</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>51</v>
+        <v>393</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>226</v>
+        <v>647</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>237</v>
+        <v>648</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>94</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -6954,22 +8270,22 @@
         <v>8</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>238</v>
+        <v>649</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>115</v>
+        <v>650</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>158</v>
+        <v>651</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>239</v>
+        <v>652</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>94</v>
+        <v>653</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -6977,22 +8293,22 @@
         <v>9</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>240</v>
+        <v>654</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>125</v>
+        <v>655</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>90</v>
+        <v>656</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>234</v>
+        <v>657</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>230</v>
+        <v>658</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>94</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
@@ -7036,47 +8352,45 @@
         <v>7</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
-        <v>241</v>
+        <v>659</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>222</v>
+        <v>606</v>
       </c>
       <c r="C259" s="2">
         <v>102</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>223</v>
+        <v>607</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>224</v>
+        <v>608</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>207</v>
+        <v>609</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="1"/>
+      <c r="D260" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -7085,10 +8399,10 @@
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A261" s="1"/>
       <c r="B261" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>6</v>
@@ -7097,10 +8411,10 @@
         <v>7</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
@@ -7108,22 +8422,22 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>242</v>
+        <v>660</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>226</v>
+        <v>647</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>194</v>
+        <v>662</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>86</v>
+        <v>663</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -7131,22 +8445,22 @@
         <v>1</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>225</v>
+        <v>664</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>85</v>
+        <v>665</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>226</v>
+        <v>666</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>227</v>
+        <v>614</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>78</v>
+        <v>667</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -7154,22 +8468,22 @@
         <v>2</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>242</v>
+        <v>660</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>122</v>
+        <v>668</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>138</v>
+        <v>634</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>234</v>
+        <v>669</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>237</v>
+        <v>670</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>173</v>
+        <v>671</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
@@ -7177,22 +8491,22 @@
         <v>3</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>243</v>
+        <v>672</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>108</v>
+        <v>673</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>244</v>
+        <v>674</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>237</v>
+        <v>675</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>94</v>
+        <v>676</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -7200,22 +8514,22 @@
         <v>4</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>236</v>
+        <v>646</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>108</v>
+        <v>677</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>138</v>
+        <v>634</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>234</v>
+        <v>669</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>237</v>
+        <v>670</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>94</v>
+        <v>678</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -7223,22 +8537,22 @@
         <v>5</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>245</v>
+        <v>679</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>108</v>
+        <v>680</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>45</v>
+        <v>612</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>226</v>
+        <v>647</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>192</v>
+        <v>681</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>96</v>
+        <v>615</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -7246,22 +8560,22 @@
         <v>6</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>240</v>
+        <v>682</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>108</v>
+        <v>680</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>42</v>
+        <v>683</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>229</v>
+        <v>619</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>246</v>
+        <v>684</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>96</v>
+        <v>615</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -7269,22 +8583,22 @@
         <v>7</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>228</v>
+        <v>685</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>108</v>
+        <v>686</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>229</v>
+        <v>687</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>246</v>
+        <v>688</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>78</v>
+        <v>689</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
@@ -7292,22 +8606,22 @@
         <v>8</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>232</v>
+        <v>690</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>85</v>
+        <v>691</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>226</v>
+        <v>647</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>230</v>
+        <v>692</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>80</v>
+        <v>693</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
@@ -7315,92 +8629,109 @@
         <v>9</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>225</v>
+        <v>610</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>125</v>
+        <v>694</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>45</v>
+        <v>612</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>226</v>
+        <v>695</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>246</v>
+        <v>696</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="85">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="D68:G68"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="D65:G65"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="D84:G84"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="D81:G81"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="D100:G100"/>
+    <mergeCell ref="B100:C100"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="D97:G97"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="D116:G116"/>
+    <mergeCell ref="B116:C116"/>
     <mergeCell ref="A113:A114"/>
     <mergeCell ref="D113:G113"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="D132:G132"/>
+    <mergeCell ref="B132:C132"/>
     <mergeCell ref="A129:A130"/>
     <mergeCell ref="D129:G129"/>
     <mergeCell ref="A148:A149"/>
     <mergeCell ref="D148:G148"/>
+    <mergeCell ref="B148:C148"/>
     <mergeCell ref="A145:A146"/>
     <mergeCell ref="D145:G145"/>
     <mergeCell ref="A164:A165"/>
     <mergeCell ref="D164:G164"/>
+    <mergeCell ref="B164:C164"/>
     <mergeCell ref="A161:A162"/>
     <mergeCell ref="D161:G161"/>
     <mergeCell ref="A180:A181"/>
     <mergeCell ref="D180:G180"/>
+    <mergeCell ref="B180:C180"/>
     <mergeCell ref="A177:A178"/>
     <mergeCell ref="D177:G177"/>
     <mergeCell ref="A196:A197"/>
     <mergeCell ref="D196:G196"/>
+    <mergeCell ref="B196:C196"/>
     <mergeCell ref="A193:A194"/>
     <mergeCell ref="D193:G193"/>
     <mergeCell ref="A212:A213"/>
     <mergeCell ref="D212:G212"/>
+    <mergeCell ref="B212:C212"/>
     <mergeCell ref="A209:A210"/>
     <mergeCell ref="D209:G209"/>
     <mergeCell ref="A228:A229"/>
     <mergeCell ref="D228:G228"/>
+    <mergeCell ref="B228:C228"/>
     <mergeCell ref="A225:A226"/>
     <mergeCell ref="D225:G225"/>
     <mergeCell ref="A244:A245"/>
     <mergeCell ref="D244:G244"/>
+    <mergeCell ref="B244:C244"/>
     <mergeCell ref="A241:A242"/>
     <mergeCell ref="D241:G241"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="D260:G260"/>
+    <mergeCell ref="B260:C260"/>
     <mergeCell ref="A257:A258"/>
     <mergeCell ref="D257:G257"/>
   </mergeCells>
